--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/20.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/20.xlsx
@@ -479,13 +479,13 @@
         <v>-9.259865778837595</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.64058768325832</v>
+        <v>-21.59994048016679</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03308404417234895</v>
+        <v>-0.03678991137747047</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.970985505012182</v>
+        <v>-8.979800384393229</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.657490033409566</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.78380625041773</v>
+        <v>-21.74340349766954</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1672677266416966</v>
+        <v>-0.1698002321987586</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.471226334069268</v>
+        <v>-8.479967878347312</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.964563755174696</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.95231076109282</v>
+        <v>-21.91844949953257</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3345842086481269</v>
+        <v>-0.3351219994034875</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.364865989679533</v>
+        <v>-8.373089299229685</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.12859221523427</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.06923136031509</v>
+        <v>-22.03735014653594</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.368088572707095</v>
+        <v>-0.3686948095585925</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.814114477114698</v>
+        <v>-7.826151212021043</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.14838881726303</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.98790273108396</v>
+        <v>-21.96413726870389</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4911155415061428</v>
+        <v>-0.4920444528108566</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.120369291706334</v>
+        <v>-7.132836259216966</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.00516388305704</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.2559523105763</v>
+        <v>-22.23337976587176</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6464148446336961</v>
+        <v>-0.6441072333925123</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.517012065253493</v>
+        <v>-6.530901733762398</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.700373462522553</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.64194918073298</v>
+        <v>-22.61886817931427</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.817026517268427</v>
+        <v>-0.8137215486263926</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.08977153316753</v>
+        <v>-6.101798490060141</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.223515092925339</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.90141366416702</v>
+        <v>-22.88042515768735</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9553022984853825</v>
+        <v>-0.9505550728176081</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.757773743855936</v>
+        <v>-5.771932307742522</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.564639936384246</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.3388624425911</v>
+        <v>-23.32015221331142</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.051708624894078</v>
+        <v>-1.04701517830184</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.452142368577615</v>
+        <v>-5.463098632966371</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.727750303402213</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.7392183259159</v>
+        <v>-23.72444374716408</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.319836428496295</v>
+        <v>-1.313852284091191</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.06555392859005</v>
+        <v>-5.079233369803677</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.711033269286632</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.20180148864279</v>
+        <v>-24.18781892900341</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.244579945793873</v>
+        <v>-1.239622492830821</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.913926269619549</v>
+        <v>-4.924603860616891</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.50845883258414</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.77777538763404</v>
+        <v>-24.76480974142298</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.178793469392666</v>
+        <v>-1.171709298442506</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.855453747491246</v>
+        <v>-4.861760566349567</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.143235923041198</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.37874188972896</v>
+        <v>-25.36689582609042</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.115984398173409</v>
+        <v>-1.108685110921105</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.734206377191756</v>
+        <v>-4.740625643208015</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.638849045417582</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.9841231650247</v>
+        <v>-25.97248243967458</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.07490696247759</v>
+        <v>-1.066615206831302</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.758020729640498</v>
+        <v>-4.760856353623309</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.020653091903321</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.75250881827026</v>
+        <v>-26.73888315613216</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9861568208224828</v>
+        <v>-0.9786424172680345</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.725601725105985</v>
+        <v>-4.725807063394396</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6532643728252499</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.50920974510388</v>
+        <v>-27.49876682643616</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8611106921873991</v>
+        <v>-0.8538358499694297</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.760636348314298</v>
+        <v>-4.758230956935775</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.327942969463487</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.40042680687381</v>
+        <v>-28.38701626103786</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6906114667106072</v>
+        <v>-0.6855171215552819</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.018262565166381</v>
+        <v>-5.01135439846343</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.958408214083306</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.04111160075555</v>
+        <v>-29.02996222059555</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4395365190601901</v>
+        <v>-0.4337234898954282</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.32884161539402</v>
+        <v>-5.31491283483018</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>5.482615144510369</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.46521583493639</v>
+        <v>-29.45485358488196</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2359484951081178</v>
+        <v>-0.2299350166618124</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.655774393591489</v>
+        <v>-5.644172780296301</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.852857888709386</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.0655100985871</v>
+        <v>-30.05433627339277</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1761947837728123</v>
+        <v>0.1809566764611875</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.000053368152773</v>
+        <v>-5.987821072971752</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>8.042792265956225</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.61450890219015</v>
+        <v>-30.60191726500441</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2404607790384093</v>
+        <v>0.243638633501904</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.268430511105202</v>
+        <v>-6.253910160710465</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>9.021141643858375</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.93615177495762</v>
+        <v>-30.92457949570363</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5252845410911403</v>
+        <v>0.5288095150421861</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.57413033247966</v>
+        <v>-6.559737096263462</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>9.771672118061094</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.13323986428013</v>
+        <v>-31.1201886604489</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7113210303909879</v>
+        <v>0.7159020298252873</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.836019763319693</v>
+        <v>-6.819866484631406</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>10.29808949091813</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.42325330712209</v>
+        <v>-31.41081078464579</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9551260248303026</v>
+        <v>0.9576683084010984</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.90237825352433</v>
+        <v>-6.885569847915876</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>10.60316830345869</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.3395021749884</v>
+        <v>-31.32769277890137</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9991026415982026</v>
+        <v>1.000657345781881</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.076642014288646</v>
+        <v>-7.058435352716255</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>10.69783652633787</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.43442224330956</v>
+        <v>-31.42232684032081</v>
       </c>
       <c r="F27" t="n">
-        <v>1.237925738040131</v>
+        <v>1.240296906370585</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.330161465372521</v>
+        <v>-7.311563683250776</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>10.60387087985379</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.259322462371</v>
+        <v>-31.24486078005866</v>
       </c>
       <c r="F28" t="n">
-        <v>1.394276177644071</v>
+        <v>1.395273535044921</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.520979403388211</v>
+        <v>-7.500572688725708</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>10.34373091685833</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.06249593491587</v>
+        <v>-31.04953028870481</v>
       </c>
       <c r="F29" t="n">
-        <v>1.4132308572671</v>
+        <v>1.41408643346881</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.829485514704278</v>
+        <v>-7.807998329524187</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>9.94069862335175</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.95188215455192</v>
+        <v>-30.93580954447694</v>
       </c>
       <c r="F30" t="n">
-        <v>1.543992234929607</v>
+        <v>1.543615781400855</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.878566254641237</v>
+        <v>-7.855680813497209</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>9.419834059967497</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.67235807594292</v>
+        <v>-30.65799906277479</v>
       </c>
       <c r="F31" t="n">
-        <v>1.44519518416299</v>
+        <v>1.447600575541512</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.813870026771352</v>
+        <v>-7.793541536218719</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>8.809123255640891</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.25823963828776</v>
+        <v>-30.24308860600719</v>
       </c>
       <c r="F32" t="n">
-        <v>1.429242354756247</v>
+        <v>1.429032127460969</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.813312679988524</v>
+        <v>-7.794890902113988</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>8.133474822418949</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.77406906574</v>
+        <v>-29.75875914073626</v>
       </c>
       <c r="F33" t="n">
-        <v>1.363979002089799</v>
+        <v>1.365592374355881</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.056834112029557</v>
+        <v>-8.036515399490659</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>7.412841986561735</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.20586868766715</v>
+        <v>-29.18894783490076</v>
       </c>
       <c r="F34" t="n">
-        <v>1.367068854429689</v>
+        <v>1.36773375936359</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.071779806021716</v>
+        <v>-8.050952636768658</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.670389200239588</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.71455038707996</v>
+        <v>-28.69869533781056</v>
       </c>
       <c r="F35" t="n">
-        <v>1.385637302510232</v>
+        <v>1.386184871279327</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.040421715977324</v>
+        <v>-8.022469282762012</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.924742995919382</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.08240913269816</v>
+        <v>-28.06889836222144</v>
       </c>
       <c r="F36" t="n">
-        <v>1.313832458655852</v>
+        <v>1.314790704001768</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.863024101811315</v>
+        <v>-7.848220189018297</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.182645394981595</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.4484736127962</v>
+        <v>-27.43565708129458</v>
       </c>
       <c r="F37" t="n">
-        <v>1.402484820173621</v>
+        <v>1.403755961959019</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.761430539116822</v>
+        <v>-7.7465532912208</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.454978874244883</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.86233057952177</v>
+        <v>-26.8510443071695</v>
       </c>
       <c r="F38" t="n">
-        <v>1.23311006627622</v>
+        <v>1.235324786386932</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.67796541388485</v>
+        <v>-7.664926432570788</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.750868768840786</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.09613520135259</v>
+        <v>-26.08745232515695</v>
       </c>
       <c r="F39" t="n">
-        <v>1.319655265834348</v>
+        <v>1.32139575227897</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.588281471918163</v>
+        <v>-7.576855862870183</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.066362793338712</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.47962654642775</v>
+        <v>-25.46947207916517</v>
       </c>
       <c r="F40" t="n">
-        <v>1.316056956780299</v>
+        <v>1.318310788945946</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.233305350332069</v>
+        <v>-7.224329133724413</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.401902817785362</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.90641493631631</v>
+        <v>-24.89852896823997</v>
       </c>
       <c r="F41" t="n">
-        <v>1.374573479970404</v>
+        <v>1.374935266478555</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.221596178885807</v>
+        <v>-7.215308916054955</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.760723675286423</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.23314002265971</v>
+        <v>-24.22458914964948</v>
       </c>
       <c r="F42" t="n">
-        <v>1.368550223510364</v>
+        <v>1.371204954239099</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.955873766662113</v>
+        <v>-6.948388697148866</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.132646743126092</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.55327961675339</v>
+        <v>-23.54451362744101</v>
       </c>
       <c r="F43" t="n">
-        <v>1.324138485131309</v>
+        <v>1.327145224354462</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.876715856479893</v>
+        <v>-6.871421062043025</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5132419911997436</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.87053469679558</v>
+        <v>-22.86395409355272</v>
       </c>
       <c r="F44" t="n">
-        <v>1.43639986080941</v>
+        <v>1.438859031263468</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.799039315378349</v>
+        <v>-6.794023194332894</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.09486716298078229</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.04142268925608</v>
+        <v>-22.03413318001751</v>
       </c>
       <c r="F45" t="n">
-        <v>1.479261784011654</v>
+        <v>1.482996985257977</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.633008642177917</v>
+        <v>-6.63084770114274</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.7011294615588726</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.5205870097099</v>
+        <v>-21.51450997417432</v>
       </c>
       <c r="F46" t="n">
-        <v>1.464144974779152</v>
+        <v>1.468613527055513</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.51532046887754</v>
+        <v>-6.510343459887021</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.309145931453425</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.83053791349292</v>
+        <v>-20.8275116182423</v>
       </c>
       <c r="F47" t="n">
-        <v>1.547033197200828</v>
+        <v>1.548524344295237</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.492894594379002</v>
+        <v>-6.490616317179019</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.91204571884074</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.18007510587735</v>
+        <v>-20.17949820306706</v>
       </c>
       <c r="F48" t="n">
-        <v>1.593214756065707</v>
+        <v>1.595546812341226</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.455796810272851</v>
+        <v>-6.453919431635955</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.512447940345378</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.4208367844798</v>
+        <v>-19.42081233944546</v>
       </c>
       <c r="F49" t="n">
-        <v>1.74187478786799</v>
+        <v>1.744143287054238</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.205812111153755</v>
+        <v>-6.20594900334603</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.108180535113244</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.0120571423233</v>
+        <v>-19.01464831596277</v>
       </c>
       <c r="F50" t="n">
-        <v>1.726332635038067</v>
+        <v>1.729417598371091</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.21757995068242</v>
+        <v>-6.214069643751975</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.686453651420751</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.43735438511745</v>
+        <v>-18.43925620878868</v>
       </c>
       <c r="F51" t="n">
-        <v>1.706009033492302</v>
+        <v>1.705798806197024</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.285346474864729</v>
+        <v>-6.281122372931714</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.242718685329811</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.98122960046176</v>
+        <v>-17.98112693131755</v>
       </c>
       <c r="F52" t="n">
-        <v>1.714320345166057</v>
+        <v>1.717190192196936</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.279993012345456</v>
+        <v>-6.276898270998699</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.770682866377846</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.57934834699448</v>
+        <v>-17.5811035004597</v>
       </c>
       <c r="F53" t="n">
-        <v>1.803354049219445</v>
+        <v>1.80634123241513</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.188192130405394</v>
+        <v>-6.186143636528157</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.256483278089851</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.95117452168518</v>
+        <v>-16.95414703786026</v>
       </c>
       <c r="F54" t="n">
-        <v>1.85412149652549</v>
+        <v>1.857680693524604</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.191291760759018</v>
+        <v>-6.187576115540163</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.694869518330311</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.75028522952364</v>
+        <v>-16.75205505000947</v>
       </c>
       <c r="F55" t="n">
-        <v>1.848303578353861</v>
+        <v>1.850664968670581</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.408197439416567</v>
+        <v>-6.404941360843202</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.082037034343155</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.20499962663602</v>
+        <v>-16.20495562557421</v>
       </c>
       <c r="F56" t="n">
-        <v>1.890437039532934</v>
+        <v>1.891991743716613</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.318601499573483</v>
+        <v>-6.316953904259333</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.410442918452528</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.11104758167451</v>
+        <v>-16.11029956362388</v>
       </c>
       <c r="F57" t="n">
-        <v>1.930947350432192</v>
+        <v>1.933039845371231</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.488435820116375</v>
+        <v>-6.484412167464904</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.678506766236565</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.90354346322204</v>
+        <v>-15.90273188808213</v>
       </c>
       <c r="F58" t="n">
-        <v>1.827491076121404</v>
+        <v>1.830184918905075</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.650217946349458</v>
+        <v>-6.645910731299706</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.887369416388327</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.65357343112355</v>
+        <v>-15.65070847309953</v>
       </c>
       <c r="F59" t="n">
-        <v>1.876654929175101</v>
+        <v>1.877979850036035</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.420820855146942</v>
+        <v>-6.419882165828493</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.037221652729371</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43226764628577</v>
+        <v>-15.42843466490211</v>
       </c>
       <c r="F60" t="n">
-        <v>1.937053720008968</v>
+        <v>1.938290638746298</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.432549582620671</v>
+        <v>-6.434778969751983</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.130221293631999</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.30151115763013</v>
+        <v>-15.29883687087393</v>
       </c>
       <c r="F61" t="n">
-        <v>1.888285876511492</v>
+        <v>1.889933471825642</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.284339339450144</v>
+        <v>-6.286984292165145</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.169339483669239</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27295935752735</v>
+        <v>-15.26751789288448</v>
       </c>
       <c r="F62" t="n">
-        <v>1.882037725735574</v>
+        <v>1.883675543035991</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.363790590044379</v>
+        <v>-6.366015088168825</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.158312209622583</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22592222246076</v>
+        <v>-15.21762557780761</v>
       </c>
       <c r="F63" t="n">
-        <v>1.867165366846419</v>
+        <v>1.868641846920228</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.394723336491349</v>
+        <v>-6.398654098012349</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.097982084692614</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.27411316314794</v>
+        <v>-15.26434492742785</v>
       </c>
       <c r="F64" t="n">
-        <v>1.718079991446715</v>
+        <v>1.719903591008074</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.388475185715432</v>
+        <v>-6.393442416692218</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.986954846120855</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.3363599985775</v>
+        <v>-15.32440148778103</v>
       </c>
       <c r="F65" t="n">
-        <v>1.704620555542098</v>
+        <v>1.706409932055389</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.489907411183316</v>
+        <v>-6.494522633665684</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.827053297848236</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.34745315515853</v>
+        <v>-15.33470262524962</v>
       </c>
       <c r="F66" t="n">
-        <v>1.795336077957705</v>
+        <v>1.795663641417788</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.443535181050629</v>
+        <v>-6.446185022772496</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.614531139173966</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.23757761483149</v>
+        <v>-15.22373194738439</v>
       </c>
       <c r="F67" t="n">
-        <v>1.617048664541918</v>
+        <v>1.616559763855226</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.196410550948678</v>
+        <v>-6.202443585422452</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.343163192948777</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.37333555751198</v>
+        <v>-15.35804763303914</v>
       </c>
       <c r="F68" t="n">
-        <v>1.589826674306935</v>
+        <v>1.591234708284607</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.316758343984657</v>
+        <v>-6.322605596197487</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.014824144333667</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.28919086032551</v>
+        <v>-15.27237756571019</v>
       </c>
       <c r="F69" t="n">
-        <v>1.542853096329616</v>
+        <v>1.545307377776807</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.198977279553809</v>
+        <v>-6.201808014529752</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.6273407521276</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.34260326034656</v>
+        <v>-15.32459704805571</v>
       </c>
       <c r="F70" t="n">
-        <v>1.482542307619353</v>
+        <v>1.48338810580733</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.131983218456473</v>
+        <v>-6.135454413331983</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.176311566766822</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.37481203758579</v>
+        <v>-15.35681560330868</v>
       </c>
       <c r="F71" t="n">
-        <v>1.375873955797003</v>
+        <v>1.377061984465663</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.139170058550838</v>
+        <v>-6.141599894963695</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.668147251819334</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.4904712730364</v>
+        <v>-15.47175126574298</v>
       </c>
       <c r="F72" t="n">
-        <v>1.2970533870886</v>
+        <v>1.298055633496318</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.999261349040333</v>
+        <v>-6.000512934798263</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.106456020204284</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.60566116382778</v>
+        <v>-15.58716116184337</v>
       </c>
       <c r="F73" t="n">
-        <v>1.225923226181855</v>
+        <v>1.22439296703251</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.14938808290269</v>
+        <v>-6.149011629373938</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.492328287497291</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.71111215294027</v>
+        <v>-15.6932574998623</v>
       </c>
       <c r="F74" t="n">
-        <v>1.08740788362842</v>
+        <v>1.08791634034258</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.062383316699072</v>
+        <v>-6.060882391590929</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.839234907121606</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.97723546372705</v>
+        <v>-15.95782121745853</v>
       </c>
       <c r="F75" t="n">
-        <v>1.03942228122965</v>
+        <v>1.040541863802174</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.101456259579456</v>
+        <v>-6.099036201180334</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.15972423419423</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.00712685171137</v>
+        <v>-15.98835795434928</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8117607874648887</v>
+        <v>0.814332405076886</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.241340524055627</v>
+        <v>-6.237258203321753</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.462395709655024</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.05198348971531</v>
+        <v>-16.03498930184592</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6695982457887358</v>
+        <v>0.6710600588419434</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.1856791808758</v>
+        <v>-6.180174159143654</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7672331881810468</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.17813942290919</v>
+        <v>-16.16308128175909</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6888462658237799</v>
+        <v>0.6891982743181978</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.161268369589294</v>
+        <v>-6.156970932553276</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.09266999892416052</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.31351113404719</v>
+        <v>-16.29832098971169</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4048438569246906</v>
+        <v>0.4063692270671681</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.18095640024236</v>
+        <v>-6.174273127855288</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.54964188242094</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.77343956604535</v>
+        <v>-16.76007791027807</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3819388597531941</v>
+        <v>0.3841486908570396</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.152629494455455</v>
+        <v>-6.144054176410886</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.140967433222998</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.22356553927535</v>
+        <v>-17.21209592916556</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2234030340797431</v>
+        <v>0.2246888428857417</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.261757016731863</v>
+        <v>-6.251470546283874</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.665529021989792</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.65387147866686</v>
+        <v>-17.64328677879999</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.08281013301574089</v>
+        <v>-0.08170521746381811</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.313448486335755</v>
+        <v>-6.302477554926398</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.11541585194723</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.12332858504864</v>
+        <v>-18.11434259042725</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.09658246535984029</v>
+        <v>-0.09538954768431304</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.371935675484659</v>
+        <v>-6.357395769062454</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.479268273478705</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.90198115271471</v>
+        <v>-18.89476008957228</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1968559962002659</v>
+        <v>-0.1968266621590644</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.411331292818259</v>
+        <v>-6.396488267970305</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.748824232858883</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.59241159146731</v>
+        <v>-19.58473585068625</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3542331272462581</v>
+        <v>-0.353661113442829</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.512435954826061</v>
+        <v>-6.494874642160102</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.920690672347818</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23578045011898</v>
+        <v>-20.23064699290872</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5148223358038133</v>
+        <v>-0.512773841926576</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.770624407467839</v>
+        <v>-6.751699061886011</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.990229641846016</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98916174128997</v>
+        <v>-20.98562210031833</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.613770945783305</v>
+        <v>-0.611409555466585</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.102250632257546</v>
+        <v>-7.080831893173593</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.956471329871611</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83458347573751</v>
+        <v>-21.83074560534698</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7343827451900967</v>
+        <v>-0.7323538073403271</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.410106505660314</v>
+        <v>-7.385495245092264</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.819816997751868</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81728852300801</v>
+        <v>-22.81584626598227</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9393299130511714</v>
+        <v>-0.9359907213610685</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.486756355319807</v>
+        <v>-7.462487325232441</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.581739322308086</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86193239827546</v>
+        <v>-23.86485602438188</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.186581657331661</v>
+        <v>-1.185075843216651</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.854815459281765</v>
+        <v>-7.832032687281941</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.249671222071723</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.06852951501634</v>
+        <v>-25.07262161376395</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.112342088057558</v>
+        <v>-1.112723430593177</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.224209262118391</v>
+        <v>-8.199764227783815</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.828974288772552</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.33679656437648</v>
+        <v>-26.34385140128544</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.324422316937461</v>
+        <v>-1.327526836297952</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.502129746475038</v>
+        <v>-8.475895335627172</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.328766766742612</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.57766561925443</v>
+        <v>-27.58607471106552</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.617772506966092</v>
+        <v>-1.617586724705149</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.800642727755131</v>
+        <v>-8.77569901472013</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.76558670576073</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.07489708270936</v>
+        <v>-29.0873713837303</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.862897533259473</v>
+        <v>-1.864530461553023</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.136468609443519</v>
+        <v>-9.111950240005941</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1525628568413912</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.71882564170951</v>
+        <v>-30.73173995334847</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.12609721793984</v>
+        <v>-2.129089290142391</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.398798050901574</v>
+        <v>-9.376059279963552</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.497669429677861</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.54495037511555</v>
+        <v>-32.55884248812789</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.154468124788547</v>
+        <v>-2.158389108295813</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.746381994104892</v>
+        <v>-9.724122345839829</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.156185837040348</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.26880686287947</v>
+        <v>-34.28347632798364</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.525450854856921</v>
+        <v>-2.527220675342744</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.10700002961541</v>
+        <v>-10.08485771751515</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.821930170439522</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.25662327589154</v>
+        <v>-36.27332167884549</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.920824840184332</v>
+        <v>-2.924090696771431</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.51501698670066</v>
+        <v>-10.49604275105016</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.463916363548106</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.29207083830455</v>
+        <v>-38.3113701929117</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.199752459955564</v>
+        <v>-3.201859621915204</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.84056617595479</v>
+        <v>-10.82318086753604</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.097514428213659</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.48669224178713</v>
+        <v>-40.50673961444492</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.562868777975071</v>
+        <v>-3.564032361609397</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.04338662582876</v>
+        <v>-11.02663199929584</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.673418440405678</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.39254445467538</v>
+        <v>-42.41204425856407</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.985142079084249</v>
+        <v>-3.986413220869647</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.28539735474792</v>
+        <v>-11.27163480041755</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.271151241703396</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.66831114963158</v>
+        <v>-44.68847096944731</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.235483675704629</v>
+        <v>-4.234921439914934</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.43590054213903</v>
+        <v>-11.42230421404214</v>
       </c>
     </row>
   </sheetData>
